--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C28933-A0A1-4A9A-B8B8-1ADE7B294FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB07E4-8246-4B18-A220-DA792CAD0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="TableList" sheetId="2" r:id="rId1"/>
     <sheet name="Soul_Table" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$T$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$T$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$S$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$S$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,12 +39,13 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>PC-07</author>
     <author>sangmin Lee</author>
     <author/>
     <author>강민수</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{604B894A-2A41-4FD7-841F-25FFC4D46FC8}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{598D2E25-942B-4E50-97C9-037EDEE9FC95}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>설치형</t>
+          <t>클래스</t>
         </r>
         <r>
           <rPr>
@@ -63,7 +64,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> : 
+1 : </t>
         </r>
         <r>
           <rPr>
@@ -73,7 +75,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>정령</t>
+          <t xml:space="preserve">탱커
+</t>
         </r>
         <r>
           <rPr>
@@ -82,8 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 1
-</t>
+          <t xml:space="preserve">2 : </t>
         </r>
         <r>
           <rPr>
@@ -93,7 +95,8 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>소환형</t>
+          <t xml:space="preserve">힐러
+</t>
         </r>
         <r>
           <rPr>
@@ -102,7 +105,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">3 : </t>
         </r>
         <r>
           <rPr>
@@ -112,7 +115,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>정령</t>
+          <t>딜러</t>
         </r>
         <r>
           <rPr>
@@ -121,11 +124,93 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> = 2</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="1" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{604B894A-2A41-4FD7-841F-25FFC4D46FC8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>설치형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>소환형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> = 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="2" shapeId="0" xr:uid="{8C276728-D164-4840-BB92-3481ACC75C39}">
       <text>
         <r>
           <rPr>
@@ -148,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="2" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
+    <comment ref="R2" authorId="3" shapeId="0" xr:uid="{0005841B-6D87-42AA-BEA6-F15FBDB4FEA1}">
       <text>
         <r>
           <rPr>
@@ -162,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{0284D678-96DA-46FF-9A50-59643832E430}">
+    <comment ref="I3" authorId="1" shapeId="0" xr:uid="{0284D678-96DA-46FF-9A50-59643832E430}">
       <text>
         <r>
           <rPr>
@@ -282,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
+    <comment ref="M3" authorId="2" shapeId="0" xr:uid="{848F2BBC-251C-4F9D-932A-5C659BA0661C}">
       <text>
         <r>
           <rPr>
@@ -295,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
+    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{B05EA72A-B70A-4B23-A051-AD4B21C4C870}">
       <text>
         <r>
           <rPr>
@@ -313,7 +398,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>번호</t>
   </si>
@@ -351,12 +436,6 @@
     <t>치명타 배율</t>
   </si>
   <si>
-    <t>스킬1</t>
-  </si>
-  <si>
-    <t>스킬2</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -385,9 +464,6 @@
   </si>
   <si>
     <t>Skill1Code</t>
-  </si>
-  <si>
-    <t>Skill2Code</t>
   </si>
   <si>
     <t>Prefab</t>
@@ -410,82 +486,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킬</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -562,9 +562,6 @@
   <si>
     <t>공격속도</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지속시간</t>
   </si>
   <si>
     <t>지속시간</t>
@@ -606,21 +603,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Soul_Class</t>
-  </si>
-  <si>
-    <t>Soul_Class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Duration</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -629,13 +616,7 @@
   </si>
   <si>
     <t>CoolTime</t>
-  </si>
-  <si>
-    <t>CoolTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재사용 대기시간</t>
   </si>
   <si>
     <t>재사용 대기시간</t>
@@ -672,51 +653,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>항목의 순차 번호</t>
-  </si>
-  <si>
-    <t>데이터의 한글명</t>
-  </si>
-  <si>
-    <t>데이터의 영문명</t>
-  </si>
-  <si>
-    <t>데이터 구분을 위한 코드 ID 값</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 데미지를 입히기 위한 수치 값</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타가 발생하기 위한 % 수치 확률 값 (1.00 = 100%)</t>
-  </si>
-  <si>
-    <t>치명타 발생 시 증가하게 되는 % 데미지 배율 (1.00 = 100%)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유하게되는 스킬의 데이터</t>
-  </si>
-  <si>
-    <t>항목에 대한 추가 설명</t>
-  </si>
-  <si>
-    <t>정령의 데미지 수치 감소를 위한 수치 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atk_Speed</t>
-  </si>
-  <si>
     <t>Atk_Speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -726,73 +662,26 @@
   </si>
   <si>
     <t>Move_Speed</t>
-  </si>
-  <si>
-    <t>Move_Speed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정령의 체력 수치 값</t>
+    <t>사용 스킬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Skill3Code</t>
+    <t>클래스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬3</t>
+    <t>SpiritType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정령 프리팹 데이터</t>
+    <t>SpritClass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정령 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설치형 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환형 정령</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워 종류별 구분 값: 설치형 정령 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>타워 종류별 구분 값: 소환형 정령 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령의 이동속도 수치 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령의 공격속도 수치 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령의 소환 후 지속시간 값</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정령 소환 후 재사용 대기시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soul_Table</t>
+    <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1216,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1232,9 +1121,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,16 +1178,49 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1313,10 +1232,22 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
@@ -1325,29 +1256,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,28 +1289,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1716,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC81B856-C114-4C3E-ABCC-32CC9B6ACE2F}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1733,560 +1628,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="6.75" customHeight="1"/>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="11">
-        <v>2</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="23">
-        <v>1</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="23">
-        <v>2</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11">
-        <v>7</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11">
-        <v>8</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11">
-        <v>9</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11">
-        <v>10</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11">
-        <v>11</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11">
-        <v>12</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11">
-        <v>13</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11">
-        <v>14</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="22" t="s">
+      <c r="G3" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="42"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11">
-        <v>16</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11">
-        <v>17</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11">
-        <v>18</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11">
-        <v>19</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="13.5">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="13.5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D10:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -2299,6 +1975,17 @@
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D10:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
   </mergeCells>
@@ -2309,13 +1996,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:T9"/>
+  <dimension ref="B2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2323,381 +2010,362 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="20" max="20" width="28.875" customWidth="1"/>
+    <col min="5" max="11" width="9.125" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="46" t="s">
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="46" t="s">
+      <c r="R2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="S2" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="55"/>
+      <c r="S3" s="53"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="27">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="D6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="28">
+        <v>100156</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28">
+        <v>100</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="28">
+        <v>500</v>
+      </c>
+      <c r="L6" s="28">
+        <v>10</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="N6" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="30">
+        <v>30</v>
+      </c>
+      <c r="P6" s="30">
         <v>40</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="Q6" s="31">
+        <v>0</v>
+      </c>
+      <c r="R6" s="28">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="27">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="28">
+        <v>100159</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="28">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28">
+        <v>120</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28">
+        <v>500</v>
+      </c>
+      <c r="L7" s="28">
         <v>10</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="M7" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="N7" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="30">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="B6" s="55">
-        <v>1</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="56">
+      <c r="P7" s="30">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="56">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56">
-        <v>100</v>
-      </c>
-      <c r="H6" s="57">
-        <v>1</v>
-      </c>
-      <c r="I6" s="57">
-        <v>1</v>
-      </c>
-      <c r="J6" s="56">
-        <v>500</v>
-      </c>
-      <c r="K6" s="56">
-        <v>10</v>
-      </c>
-      <c r="L6" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="M6" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="58">
-        <v>30</v>
-      </c>
-      <c r="O6" s="58">
-        <v>40</v>
-      </c>
-      <c r="P6" s="59">
+      <c r="R7" s="28">
         <v>0</v>
       </c>
-      <c r="Q6" s="59">
-        <v>0</v>
-      </c>
-      <c r="R6" s="59">
-        <v>0</v>
-      </c>
-      <c r="S6" s="56">
-        <v>0</v>
-      </c>
-      <c r="T6" s="53"/>
-    </row>
-    <row r="7" spans="2:20">
-      <c r="B7" s="55">
-        <v>2</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="56">
-        <v>0</v>
-      </c>
-      <c r="F7" s="56">
-        <v>2</v>
-      </c>
-      <c r="G7" s="56">
-        <v>120</v>
-      </c>
-      <c r="H7" s="57">
-        <v>1</v>
-      </c>
-      <c r="I7" s="57">
-        <v>1</v>
-      </c>
-      <c r="J7" s="56">
-        <v>500</v>
-      </c>
-      <c r="K7" s="56">
-        <v>10</v>
-      </c>
-      <c r="L7" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="57">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="58">
-        <v>30</v>
-      </c>
-      <c r="O7" s="58">
-        <v>40</v>
-      </c>
-      <c r="P7" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="59">
-        <v>0</v>
-      </c>
-      <c r="R7" s="59">
-        <v>0</v>
-      </c>
-      <c r="S7" s="56">
-        <v>0</v>
-      </c>
-      <c r="T7" s="54"/>
-    </row>
-    <row r="8" spans="2:20">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:T5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
+  <autoFilter ref="B5:S5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
   <mergeCells count="9">
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2709,7 +2377,7 @@
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>
-    <brk id="19" max="8" man="1"/>
+    <brk id="18" max="8" man="1"/>
   </colBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FB07E4-8246-4B18-A220-DA792CAD0DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB787D1E-0E8D-4BD2-98EF-CC42DA210FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="TableList" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Soul_Table!$B$5:$S$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$S$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Soul_Table!$A$1:$S$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1105,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,15 +1148,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1205,22 +1196,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1232,35 +1235,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1611,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC81B856-C114-4C3E-ABCC-32CC9B6ACE2F}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J23"/>
     </sheetView>
   </sheetViews>
@@ -1645,11 +1636,11 @@
       <c r="F2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
@@ -1672,11 +1663,11 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1685,260 +1676,260 @@
     <row r="4" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="34"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="11"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="19"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="21"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="21"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="21"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="21"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="21"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="21"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="21"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="20"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="34"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="34"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="34"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="34"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="11"/>
       <c r="K23" s="6"/>
     </row>
@@ -1957,12 +1948,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -1979,6 +1964,12 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
@@ -1996,13 +1987,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
-  <dimension ref="B2:S9"/>
+  <dimension ref="B2:S8"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F3"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2016,52 +2007,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="24" t="s">
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="49" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="60"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2092,8 +2083,8 @@
       <c r="Q3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="53"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="50"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="2" t="s">
@@ -2208,112 +2199,112 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="25">
         <v>100156</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>1</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="25">
         <v>100</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="26">
         <v>1</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="26">
         <v>0</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="25">
         <v>500</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="25">
         <v>10</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="26">
         <v>0.2</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="26">
         <v>1.5</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="27">
         <v>30</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="27">
         <v>40</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="28">
         <v>0</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="25">
         <v>0</v>
       </c>
-      <c r="S6" s="25"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="25">
         <v>100159</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="25">
         <v>2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="25">
         <v>2</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="25">
         <v>120</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="26">
         <v>1</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="25">
         <v>500</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="25">
         <v>10</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="26">
         <v>0.2</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="26">
         <v>1.5</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="27">
         <v>30</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="27">
         <v>40</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="28">
         <v>0</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="25">
         <v>0</v>
       </c>
-      <c r="S7" s="26"/>
+      <c r="S7" s="23"/>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="14"/>
@@ -2329,31 +2320,11 @@
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="16"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:S5" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}"/>
@@ -2373,7 +2344,7 @@
   <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="16" man="1"/>
-    <brk id="8" max="16383" man="1"/>
+    <brk id="7" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="1" max="8" man="1"/>

--- a/ExcelData/Data_Table/SpritTable.xlsx
+++ b/ExcelData/Data_Table/SpritTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB787D1E-0E8D-4BD2-98EF-CC42DA210FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC64567-8CA2-482A-B879-73235778AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
@@ -1196,44 +1196,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1246,6 +1228,24 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1636,11 +1636,11 @@
       <c r="F2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
@@ -1663,11 +1663,11 @@
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="9" t="s">
         <v>50</v>
       </c>
@@ -1676,62 +1676,62 @@
     <row r="4" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A4" s="6"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="11"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="11"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="11"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="37"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="44"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="11"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="18"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
@@ -1741,10 +1741,10 @@
     <row r="9" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -1754,128 +1754,128 @@
     <row r="10" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A10" s="6"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="18"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="19"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="18"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="34"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="19"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="18"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="34"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="18"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="34"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="18"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="18"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="34"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="18"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="18"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A18" s="6"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="18"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="47"/>
       <c r="I19" s="48"/>
       <c r="J19" s="17"/>
@@ -1884,52 +1884,52 @@
     <row r="20" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="11"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A21" s="6"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="11"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A22" s="6"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="11"/>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" s="8" customFormat="1" ht="13.5">
       <c r="A23" s="6"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="11"/>
       <c r="K23" s="6"/>
     </row>
@@ -1948,6 +1948,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="C4:C23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
@@ -1964,21 +1979,6 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="D10:D18"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,7 +1993,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
